--- a/moyusi/Keywords/Web/秒商品-新增未开始的活动.xlsx
+++ b/moyusi/Keywords/Web/秒商品-新增未开始的活动.xlsx
@@ -216,10 +216,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>F:\Dayu\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>//span[contains(text(),'提交')]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -440,6 +436,10 @@
   </si>
   <si>
     <t>//a[text()='秒杀']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -891,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="5" t="s">
@@ -932,11 +932,11 @@
         <v>23</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -958,7 +958,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1015,13 +1015,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1046,54 +1046,54 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
         <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1111,40 +1111,40 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="11">
         <v>2000</v>
@@ -1184,7 +1184,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
         <v>37</v>
@@ -1222,56 +1222,56 @@
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="C28" s="15">
         <v>0</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="11"/>
       <c r="D30" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F31" s="20"/>
     </row>
@@ -1288,16 +1288,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1305,7 +1305,7 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -1314,21 +1314,21 @@
         <v>0.01</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35">
         <v>5</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1336,7 +1336,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1345,21 +1345,21 @@
         <v>0.02</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37">
         <v>6</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1367,7 +1367,7 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1376,21 +1376,21 @@
         <v>100</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39">
         <v>7</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -1407,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1415,7 +1415,7 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>46</v>
@@ -1426,7 +1426,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
         <v>48</v>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B45" s="9"/>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>24</v>
@@ -1489,7 +1489,7 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
@@ -1504,7 +1504,7 @@
         <v>28</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>28</v>

--- a/moyusi/Keywords/Web/秒商品-新增未开始的活动.xlsx
+++ b/moyusi/Keywords/Web/秒商品-新增未开始的活动.xlsx
@@ -439,8 +439,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>F:\jenkins\workspace\Auto-Testing_Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -845,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>

--- a/moyusi/Keywords/Web/秒商品-新增未开始的活动.xlsx
+++ b/moyusi/Keywords/Web/秒商品-新增未开始的活动.xlsx
@@ -439,7 +439,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\Auto-Testing_Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
+    <t>F:\jenkins\workspace\Auto-Testing-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -844,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>

--- a/moyusi/Keywords/Web/秒商品-新增未开始的活动.xlsx
+++ b/moyusi/Keywords/Web/秒商品-新增未开始的活动.xlsx
@@ -439,7 +439,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\Auto-Testing-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
+    <t>F:\jenkins\workspace\AutoTesting-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
   </si>
 </sst>
 </file>
